--- a/prices/EXL ПРАЙСИ.xlsx
+++ b/prices/EXL ПРАЙСИ.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vovoo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My PC\Desktop\Two gen\prices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F76D058-FFA6-4040-8063-D95D09713177}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7AB6BB59-18D9-41BC-A5CF-E82EB29ED10F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>Країна</t>
   </si>
@@ -140,24 +139,12 @@
     <t>МИТИЙ</t>
   </si>
   <si>
-    <t>130/185</t>
-  </si>
-  <si>
-    <t>495/745</t>
-  </si>
-  <si>
     <t>GUJI</t>
   </si>
   <si>
     <t>НАТУРАЛЬНИЙ</t>
   </si>
   <si>
-    <t>180/245</t>
-  </si>
-  <si>
-    <t>690/985</t>
-  </si>
-  <si>
     <t xml:space="preserve">UN REGALO DE DIOS </t>
   </si>
   <si>
@@ -170,18 +157,12 @@
     <t xml:space="preserve">НАТУРАЛЬНИЙ </t>
   </si>
   <si>
-    <t>640/960</t>
-  </si>
-  <si>
     <t xml:space="preserve">HEIRLOOM </t>
   </si>
   <si>
     <t xml:space="preserve">Вид арабіки </t>
   </si>
   <si>
-    <t>165/235</t>
-  </si>
-  <si>
     <t>TWOGEN</t>
   </si>
   <si>
@@ -198,12 +179,33 @@
   </si>
   <si>
     <t xml:space="preserve">www.2gen.com.ua </t>
+  </si>
+  <si>
+    <t>185/745</t>
+  </si>
+  <si>
+    <t>130/495</t>
+  </si>
+  <si>
+    <t>245/985</t>
+  </si>
+  <si>
+    <t>180/690</t>
+  </si>
+  <si>
+    <t>235/960</t>
+  </si>
+  <si>
+    <t>165/640</t>
+  </si>
+  <si>
+    <t>*ціни дійсні до 31.09.19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -347,11 +349,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -394,31 +393,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -735,339 +740,341 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066136EF-74FE-4FE5-9F94-38725A997700}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A11" sqref="A11:I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="46.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" customWidth="1"/>
-    <col min="9" max="9" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="46.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="25.88671875" customWidth="1"/>
+    <col min="8" max="8" width="31.44140625" customWidth="1"/>
+    <col min="9" max="9" width="35.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="68.25" customHeight="1">
-      <c r="A1" s="22"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24" t="s">
+      <c r="A1" s="28"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
+    </row>
+    <row r="2" spans="1:9" ht="31.5" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30.75" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="10">
+        <v>2019</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="29.25" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2018</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="29.25" customHeight="1">
+      <c r="A5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="8">
+        <v>2019</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="29.25" customHeight="1">
+      <c r="A6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2018</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="29.25" customHeight="1">
+      <c r="A7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="8">
+        <v>2019</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="25"/>
-    </row>
-    <row r="2" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="7" t="s">
+    </row>
+    <row r="8" spans="1:9" ht="30" customHeight="1">
+      <c r="A8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="8">
+        <v>2019</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="11">
+    <row r="9" spans="1:9">
+      <c r="A9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="8">
         <v>2019</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="29.25" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="9">
-        <v>2018</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="29.25" customHeight="1">
-      <c r="A5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="9">
-        <v>2019</v>
-      </c>
-      <c r="G5" s="10" t="s">
+      <c r="G9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="29.25" customHeight="1">
-      <c r="A6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="9">
-        <v>2018</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="29.25" customHeight="1">
-      <c r="A7" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="H9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="9">
-        <v>2019</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1">
-      <c r="A8" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="9">
-        <v>2019</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="9">
-        <v>2019</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="22"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="20"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="20"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="20"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="22"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1076,7 +1083,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A11" r:id="rId1" xr:uid="{022C3CB5-DD33-4A53-B130-BD920724953E}"/>
+    <hyperlink ref="A11" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="54" orientation="landscape" verticalDpi="0" r:id="rId2"/>
